--- a/Triangle_Test_Data/Triangle_Test_data.xlsx
+++ b/Triangle_Test_Data/Triangle_Test_data.xlsx
@@ -29,7 +29,7 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>vijay102@ctfs.com</t>
+    <t>vijay362@ctfs.com</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
